--- a/Aliana.xlsx
+++ b/Aliana.xlsx
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J5" sqref="A5:XFD5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1608,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="47">
         <v>44631</v>
